--- a/File/Excel/TestData/Excel003_Data.xlsx
+++ b/File/Excel/TestData/Excel003_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_AD4D066CA252ABDACC10480CD112D0A272EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA057616-F5A8-4526-A24E-A803DC825693}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D066CA252ABDACC10480CD112D0A272EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295CAE86-77CC-46CD-8B5D-D797A50AA2B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>This is Sheet1</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,54 @@
   </si>
   <si>
     <t>記号：　！”＃＄％＆’（）＊＋，－．／：；＜＝＞？＠［￥］＾＿‘｛｜｝￣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後に半角空白：</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後に全角空白：</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　123　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後に半角ゼロ：</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01230</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -127,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -411,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -458,13 +507,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449250B6-1994-423A-BB19-450140608F46}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -496,6 +546,30 @@
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
